--- a/matching_results Sundar Pichai.xlsx
+++ b/matching_results Sundar Pichai.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>98</v>
+        <v>7211</v>
       </c>
     </row>
     <row r="3">
@@ -462,27 +462,27 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>618</v>
+        <v>14881</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Mark 6.png</t>
+          <t>Sundar Pichai 1.jpg</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1176</v>
+        <v>15293</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sundar Pichai 1.jpg</t>
+          <t>Mark 6.png</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1364</v>
+        <v>16589</v>
       </c>
     </row>
     <row r="6">
@@ -492,47 +492,47 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1598</v>
+        <v>21222</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sundar Pichai 3.png</t>
+          <t>satya nadella 2.png</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2124</v>
+        <v>22314</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Mark 4.jpg</t>
+          <t>Sundar Pichai 3.png</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2810</v>
+        <v>22967</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mark1.jpeg</t>
+          <t>Mark 4.jpg</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3472</v>
+        <v>23653</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>satya nadella 2.png</t>
+          <t>Mark1.jpeg</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4166</v>
+        <v>24315</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4858</v>
+        <v>25701</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>157581</v>
+        <v>151275</v>
       </c>
     </row>
   </sheetData>

--- a/matching_results Sundar Pichai.xlsx
+++ b/matching_results Sundar Pichai.xlsx
@@ -448,11 +448,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sundar Pichai 4.jpeg</t>
+          <t>mark zuckerberg.jpeg</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7211</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3">
@@ -462,27 +462,27 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14881</v>
+        <v>522</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sundar Pichai 1.jpg</t>
+          <t>Mark 6.png</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15293</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Mark 6.png</t>
+          <t>Sundar Pichai 1.jpg</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16589</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="6">
@@ -492,47 +492,47 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21222</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>satya nadella 2.png</t>
+          <t>Sundar Pichai 3.png</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22314</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sundar Pichai 3.png</t>
+          <t>Mark 4.jpg</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22967</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mark 4.jpg</t>
+          <t>Mark1.jpeg</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>23653</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Mark1.jpeg</t>
+          <t>satya nadella 2.png</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24315</v>
+        <v>4184</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25701</v>
+        <v>4862</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>151275</v>
+        <v>158169</v>
       </c>
     </row>
   </sheetData>

--- a/matching_results Sundar Pichai.xlsx
+++ b/matching_results Sundar Pichai.xlsx
@@ -448,61 +448,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>mark zuckerberg.jpeg</t>
+          <t>Sundar Pichai 1.jpg</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>satya nadella 2.jpeg</t>
+          <t>Mark 6.png</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>522</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Mark 6.png</t>
+          <t>Mark3.png</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1180</v>
+        <v>542</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sundar Pichai 1.jpg</t>
+          <t>Sundar Pichai 3.png</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1368</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Mark3.png</t>
+          <t>satya nadella 2.jpeg</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1602</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sundar Pichai 3.png</t>
+          <t>mark zuckerberg.jpeg</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2128</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2814</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="9">
@@ -522,27 +522,27 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3476</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>satya nadella 2.png</t>
+          <t>Mark2.jpg</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4184</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Mark2.jpg</t>
+          <t>satya nadella 2.png</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4862</v>
+        <v>4450</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>158169</v>
+        <v>115087</v>
       </c>
     </row>
   </sheetData>

--- a/matching_results Sundar Pichai.xlsx
+++ b/matching_results Sundar Pichai.xlsx
@@ -448,61 +448,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sundar Pichai 1.jpg</t>
+          <t>mark zuckerberg.jpeg</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Mark 6.png</t>
+          <t>satya nadella 2.jpeg</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>300</v>
+        <v>522</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Mark3.png</t>
+          <t>Mark 6.png</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>542</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sundar Pichai 3.png</t>
+          <t>Sundar Pichai 1.jpg</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1112</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>satya nadella 2.jpeg</t>
+          <t>Mark3.png</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1230</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>mark zuckerberg.jpeg</t>
+          <t>Sundar Pichai 3.png</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1364</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1446</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="9">
@@ -522,27 +522,27 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2108</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Mark2.jpg</t>
+          <t>satya nadella 2.png</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3494</v>
+        <v>4184</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>satya nadella 2.png</t>
+          <t>Mark2.jpg</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4450</v>
+        <v>4862</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>115087</v>
+        <v>158169</v>
       </c>
     </row>
   </sheetData>

--- a/matching_results Sundar Pichai.xlsx
+++ b/matching_results Sundar Pichai.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,111 +448,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sundar Pichai 1.jpg</t>
+          <t>mark zuckerberg.jpeg</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Mark 6.png</t>
+          <t>Sundar Pichai 1.jpeg</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>300</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Mark3.png</t>
+          <t>Abdul Kalam 1.jpeg</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>542</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sundar Pichai 3.png</t>
+          <t>Abdul Kalam 2.jpeg</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1112</v>
+        <v>477</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>satya nadella 2.jpeg</t>
+          <t>Sundar Pichai.jpeg</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1230</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>mark zuckerberg.jpeg</t>
+          <t>Mark 4.jpg</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Mark 4.jpg</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1446</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Mark1.jpeg</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2108</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Mark2.jpg</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>3494</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>satya nadella 2.png</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4450</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Sundar Pichai 2.jpg</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>115087</v>
+        <v>2814</v>
       </c>
     </row>
   </sheetData>

--- a/matching_results Sundar Pichai.xlsx
+++ b/matching_results Sundar Pichai.xlsx
@@ -448,11 +448,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>mark zuckerberg.jpeg</t>
+          <t>Abdul Kalam 1.jpeg</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>96</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -462,17 +462,17 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Abdul Kalam 1.jpeg</t>
+          <t>mark zuckerberg.jpeg</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>264</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>477</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1583</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2814</v>
+        <v>2790</v>
       </c>
     </row>
   </sheetData>
